--- a/tests/regression_data/kofskey1972a_isentropic_2.xlsx
+++ b/tests/regression_data/kofskey1972a_isentropic_2.xlsx
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>85.86335927798092</v>
+        <v>85.86335915211677</v>
       </c>
       <c r="D2" t="n">
-        <v>85.86335927798092</v>
+        <v>85.86335915211677</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>85.86335927798092</v>
+        <v>85.86335915211677</v>
       </c>
       <c r="H2" t="n">
-        <v>85.86335927798092</v>
+        <v>85.86335915211677</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -767,40 +767,40 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>132094.3303615213</v>
+        <v>132094.3303785657</v>
       </c>
       <c r="L2" t="n">
-        <v>291.9244869369387</v>
+        <v>291.9244869477153</v>
       </c>
       <c r="M2" t="n">
-        <v>418098.1728551392</v>
+        <v>418098.1728659464</v>
       </c>
       <c r="N2" t="n">
         <v>3782.917347718248</v>
       </c>
       <c r="O2" t="n">
-        <v>1.577163811397858</v>
+        <v>1.577163811543023</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9994949829131382</v>
+        <v>0.9994949829132131</v>
       </c>
       <c r="Q2" t="n">
-        <v>342.6569019687522</v>
+        <v>342.6569019750829</v>
       </c>
       <c r="R2" t="n">
-        <v>1.81504632793311e-05</v>
+        <v>1.815046327985871e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02579204405799952</v>
+        <v>0.02579204405881208</v>
       </c>
       <c r="T2" t="n">
-        <v>1006.625244240661</v>
+        <v>1006.625244241224</v>
       </c>
       <c r="U2" t="n">
-        <v>717.6935962836109</v>
+        <v>717.693596284096</v>
       </c>
       <c r="V2" t="n">
-        <v>1.402583566933308</v>
+        <v>1.402583566933145</v>
       </c>
       <c r="W2" t="n">
         <v>137999.9999977021</v>
@@ -883,16 +883,16 @@
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="n">
-        <v>0.2505811462855373</v>
+        <v>0.2505811459135895</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.2505811462855373</v>
+        <v>0.2505811459135895</v>
       </c>
       <c r="BE2" t="n">
-        <v>195179.7260594477</v>
+        <v>195179.7257856317</v>
       </c>
       <c r="BF2" t="n">
-        <v>2.907268365630972</v>
+        <v>2.907268361636897</v>
       </c>
       <c r="BG2" t="n">
         <v>421784.4310884894</v>
@@ -907,79 +907,79 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>282.088459694727</v>
+        <v>282.0884580125613</v>
       </c>
       <c r="D3" t="n">
-        <v>119.2157344932969</v>
+        <v>119.2157337823829</v>
       </c>
       <c r="E3" t="n">
-        <v>255.6589676545052</v>
+        <v>255.6589661299453</v>
       </c>
       <c r="F3" t="n">
         <v>65</v>
       </c>
       <c r="G3" t="n">
-        <v>282.088459694727</v>
+        <v>282.0884580125613</v>
       </c>
       <c r="H3" t="n">
-        <v>119.2157344932969</v>
+        <v>119.2157337823829</v>
       </c>
       <c r="I3" t="n">
-        <v>255.6589676545052</v>
+        <v>255.6589661299453</v>
       </c>
       <c r="J3" t="n">
         <v>65</v>
       </c>
       <c r="K3" t="n">
-        <v>83382.11330737847</v>
+        <v>83382.11384617127</v>
       </c>
       <c r="L3" t="n">
-        <v>255.9009847113664</v>
+        <v>255.9009851849354</v>
       </c>
       <c r="M3" t="n">
-        <v>381997.4815421177</v>
+        <v>381997.4820164366</v>
       </c>
       <c r="N3" t="n">
-        <v>3782.917347714281</v>
+        <v>3782.91734771428</v>
       </c>
       <c r="O3" t="n">
-        <v>1.135928772744833</v>
+        <v>1.135928777980491</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9992947613445714</v>
+        <v>0.9992947613465631</v>
       </c>
       <c r="Q3" t="n">
-        <v>320.7932851270291</v>
+        <v>320.7932854242696</v>
       </c>
       <c r="R3" t="n">
-        <v>1.634020501138082e-05</v>
+        <v>1.634020503582068e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02302023678309561</v>
+        <v>0.0230202368202996</v>
       </c>
       <c r="T3" t="n">
-        <v>1005.121875553931</v>
+        <v>1005.121875569158</v>
       </c>
       <c r="U3" t="n">
-        <v>716.4480066289556</v>
+        <v>716.4480066408478</v>
       </c>
       <c r="V3" t="n">
-        <v>1.402923682184908</v>
+        <v>1.402923682182874</v>
       </c>
       <c r="W3" t="n">
-        <v>137999.999997702</v>
+        <v>137999.9999977021</v>
       </c>
       <c r="X3" t="n">
-        <v>295.6000000000946</v>
+        <v>295.6000000000945</v>
       </c>
       <c r="Y3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="Z3" t="n">
         <v>3782.917347718133</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.627145819784671</v>
+        <v>1.627145819784673</v>
       </c>
       <c r="AB3" t="n">
         <v>0.9995210660215935</v>
@@ -1003,19 +1003,19 @@
         <v>1.402525623278237</v>
       </c>
       <c r="AI3" t="n">
-        <v>137999.999997702</v>
+        <v>137999.9999977021</v>
       </c>
       <c r="AJ3" t="n">
-        <v>295.6000000000946</v>
+        <v>295.6000000000945</v>
       </c>
       <c r="AK3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="AL3" t="n">
         <v>3782.917347718133</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.627145819784671</v>
+        <v>1.627145819784673</v>
       </c>
       <c r="AN3" t="n">
         <v>0.9995210660215935</v>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="AV3" t="n">
-        <v>2.131450498753182e-15</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8793465224280625</v>
+        <v>0.8793465163695096</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.8793465224280625</v>
+        <v>0.8793465163695096</v>
       </c>
       <c r="BE3" t="n">
-        <v>512999.1650229109</v>
+        <v>512999.1635609649</v>
       </c>
       <c r="BF3" t="n">
-        <v>2.907268365557132</v>
+        <v>2.907268361620362</v>
       </c>
       <c r="BG3" t="n">
         <v>421784.4310884894</v>
@@ -1091,136 +1091,136 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>274.3564432765403</v>
+        <v>274.3564435332285</v>
       </c>
       <c r="D4" t="n">
-        <v>116.7596866180161</v>
+        <v>116.7596867256853</v>
       </c>
       <c r="E4" t="n">
-        <v>248.2712902214353</v>
+        <v>248.2712904544572</v>
       </c>
       <c r="F4" t="n">
-        <v>64.81283323845463</v>
+        <v>64.81283323881723</v>
       </c>
       <c r="G4" t="n">
-        <v>274.3564432765403</v>
+        <v>274.3564435332285</v>
       </c>
       <c r="H4" t="n">
-        <v>116.7596866180161</v>
+        <v>116.7596867256853</v>
       </c>
       <c r="I4" t="n">
-        <v>248.2712902214353</v>
+        <v>248.2712904544572</v>
       </c>
       <c r="J4" t="n">
-        <v>64.81283323845463</v>
+        <v>64.81283323881723</v>
       </c>
       <c r="K4" t="n">
-        <v>85851.39431795737</v>
+        <v>85851.39423640187</v>
       </c>
       <c r="L4" t="n">
-        <v>258.0487474208152</v>
+        <v>258.0487473505067</v>
       </c>
       <c r="M4" t="n">
-        <v>384148.7021049126</v>
+        <v>384148.7020344888</v>
       </c>
       <c r="N4" t="n">
-        <v>3782.917347713185</v>
+        <v>3782.917347712773</v>
       </c>
       <c r="O4" t="n">
-        <v>1.159823109708622</v>
+        <v>1.1598231089232</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9993039628551961</v>
+        <v>0.9993039628548883</v>
       </c>
       <c r="Q4" t="n">
-        <v>322.1385322945429</v>
+        <v>322.1385322505973</v>
       </c>
       <c r="R4" t="n">
-        <v>1.64508648864536e-05</v>
+        <v>1.645086488283701e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02318875057773725</v>
+        <v>0.02318875057222793</v>
       </c>
       <c r="T4" t="n">
-        <v>1005.192041903431</v>
+        <v>1005.192041901101</v>
       </c>
       <c r="U4" t="n">
-        <v>716.5030324385104</v>
+        <v>716.5030324366734</v>
       </c>
       <c r="V4" t="n">
-        <v>1.402913869718613</v>
+        <v>1.402913869718957</v>
       </c>
       <c r="W4" t="n">
-        <v>137999.9999976202</v>
+        <v>137999.9999978183</v>
       </c>
       <c r="X4" t="n">
-        <v>295.6000000000943</v>
+        <v>295.6000000000947</v>
       </c>
       <c r="Y4" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="Z4" t="n">
-        <v>3782.917347718303</v>
+        <v>3782.917347717892</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.627145819783709</v>
+        <v>1.627145819786042</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.9995210660215937</v>
+        <v>0.9995210660215931</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.8092213940546</v>
+        <v>344.8092213940551</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.832995174012181e-05</v>
+        <v>1.832995174012186e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02606863419706755</v>
+        <v>0.02606863419706765</v>
       </c>
       <c r="AF4" t="n">
-        <v>1006.821582550289</v>
+        <v>1006.821582550292</v>
       </c>
       <c r="AG4" t="n">
-        <v>717.8632360362618</v>
+        <v>717.8632360362623</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.402525623278235</v>
+        <v>1.402525623278239</v>
       </c>
       <c r="AI4" t="n">
-        <v>137999.9999976202</v>
+        <v>137999.9999978183</v>
       </c>
       <c r="AJ4" t="n">
-        <v>295.6000000000943</v>
+        <v>295.6000000000947</v>
       </c>
       <c r="AK4" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="AL4" t="n">
-        <v>3782.917347718303</v>
+        <v>3782.917347717892</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.627145819783709</v>
+        <v>1.627145819786042</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.9995210660215937</v>
+        <v>0.9995210660215931</v>
       </c>
       <c r="AO4" t="n">
-        <v>344.8092213940546</v>
+        <v>344.8092213940551</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.832995174012181e-05</v>
+        <v>1.832995174012186e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.02606863419706755</v>
+        <v>0.02606863419706765</v>
       </c>
       <c r="AR4" t="n">
-        <v>1006.821582550289</v>
+        <v>1006.821582550292</v>
       </c>
       <c r="AS4" t="n">
-        <v>717.8632360362618</v>
+        <v>717.8632360362623</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.402525623278235</v>
+        <v>1.402525623278239</v>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="AV4" t="n">
-        <v>1.569918773623502e-12</v>
+        <v>-2.227911743505169e-12</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -1249,16 +1249,16 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.8516722334405074</v>
+        <v>0.8516722343535165</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.8516722334405074</v>
+        <v>0.8516722343535165</v>
       </c>
       <c r="BE4" t="n">
-        <v>506006.3025146811</v>
+        <v>506006.3027566793</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.907268362273899</v>
+        <v>2.907268362986043</v>
       </c>
       <c r="BG4" t="n">
         <v>421784.4310884894</v>
@@ -1275,136 +1275,136 @@
         <v>165.3032</v>
       </c>
       <c r="C5" t="n">
-        <v>274.3564432765403</v>
+        <v>274.3564435332285</v>
       </c>
       <c r="D5" t="n">
-        <v>116.7596866180161</v>
+        <v>116.7596867256853</v>
       </c>
       <c r="E5" t="n">
-        <v>248.2712902214353</v>
+        <v>248.2712904544572</v>
       </c>
       <c r="F5" t="n">
-        <v>64.81283323845463</v>
+        <v>64.81283323881723</v>
       </c>
       <c r="G5" t="n">
-        <v>143.2359187289611</v>
+        <v>143.2359189517042</v>
       </c>
       <c r="H5" t="n">
-        <v>116.7596866180161</v>
+        <v>116.7596867256853</v>
       </c>
       <c r="I5" t="n">
-        <v>82.96809022143532</v>
+        <v>82.96809045445715</v>
       </c>
       <c r="J5" t="n">
-        <v>35.39716327071257</v>
+        <v>35.39716332174697</v>
       </c>
       <c r="K5" t="n">
-        <v>85851.39431784148</v>
+        <v>85851.39423651788</v>
       </c>
       <c r="L5" t="n">
-        <v>258.0487474207153</v>
+        <v>258.0487473506068</v>
       </c>
       <c r="M5" t="n">
-        <v>384148.7021048126</v>
+        <v>384148.702034589</v>
       </c>
       <c r="N5" t="n">
-        <v>3782.917347713186</v>
+        <v>3782.917347712773</v>
       </c>
       <c r="O5" t="n">
-        <v>1.159823109707506</v>
+        <v>1.159823108924317</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9993039628551956</v>
+        <v>0.9993039628548888</v>
       </c>
       <c r="Q5" t="n">
-        <v>322.1385322944805</v>
+        <v>322.1385322506598</v>
       </c>
       <c r="R5" t="n">
-        <v>1.645086488644846e-05</v>
+        <v>1.645086488284216e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02318875057772942</v>
+        <v>0.02318875057223579</v>
       </c>
       <c r="T5" t="n">
-        <v>1005.192041903428</v>
+        <v>1005.192041901104</v>
       </c>
       <c r="U5" t="n">
-        <v>716.5030324385077</v>
+        <v>716.503032436676</v>
       </c>
       <c r="V5" t="n">
-        <v>1.402913869718614</v>
+        <v>1.402913869718956</v>
       </c>
       <c r="W5" t="n">
-        <v>137999.9999976195</v>
+        <v>137999.9999978182</v>
       </c>
       <c r="X5" t="n">
-        <v>295.6000000000942</v>
+        <v>295.6000000000948</v>
       </c>
       <c r="Y5" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="Z5" t="n">
-        <v>3782.917347718304</v>
+        <v>3782.91734771789</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.6271458197837</v>
+        <v>1.627145819786041</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.9995210660215937</v>
+        <v>0.9995210660215931</v>
       </c>
       <c r="AC5" t="n">
-        <v>344.8092213940546</v>
+        <v>344.8092213940551</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.83299517401218e-05</v>
+        <v>1.832995174012186e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02606863419706754</v>
+        <v>0.02606863419706765</v>
       </c>
       <c r="AF5" t="n">
-        <v>1006.821582550289</v>
+        <v>1006.821582550292</v>
       </c>
       <c r="AG5" t="n">
-        <v>717.8632360362617</v>
+        <v>717.8632360362623</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.402525623278235</v>
+        <v>1.402525623278239</v>
       </c>
       <c r="AI5" t="n">
-        <v>98348.87282821078</v>
+        <v>98348.87277912922</v>
       </c>
       <c r="AJ5" t="n">
-        <v>268.2888290499486</v>
+        <v>268.2888290115038</v>
       </c>
       <c r="AK5" t="n">
-        <v>394406.9663118775</v>
+        <v>394406.9662733582</v>
       </c>
       <c r="AL5" t="n">
-        <v>3782.917347711321</v>
+        <v>3782.917347710908</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.277885255024654</v>
+        <v>1.277885254570288</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.9993525104085205</v>
+        <v>0.9993525104083226</v>
       </c>
       <c r="AO5" t="n">
-        <v>328.4766232017329</v>
+        <v>328.4766231781675</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.697355975093507e-05</v>
+        <v>1.69735597489877e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.02398633538065598</v>
+        <v>0.02398633537767946</v>
       </c>
       <c r="AR5" t="n">
-        <v>1005.558290405818</v>
+        <v>1005.558290404344</v>
       </c>
       <c r="AS5" t="n">
-        <v>716.7966591790721</v>
+        <v>716.7966591778691</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.402850135430956</v>
+        <v>1.402850135431253</v>
       </c>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
@@ -1415,19 +1415,19 @@
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="n">
-        <v>0.8516722334406722</v>
+        <v>0.8516722343533512</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.4446407503900312</v>
+        <v>0.4446407511419671</v>
       </c>
       <c r="BE5" t="n">
-        <v>263165.7530067089</v>
+        <v>263165.7532959357</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.907268362271101</v>
+        <v>2.907268362988842</v>
       </c>
       <c r="BG5" t="n">
-        <v>380744.3923468576</v>
+        <v>380744.3923083385</v>
       </c>
       <c r="BH5" t="inlineStr"/>
     </row>
@@ -1439,136 +1439,136 @@
         <v>165.3032</v>
       </c>
       <c r="C6" t="n">
-        <v>162.8156321065856</v>
+        <v>162.8156062079502</v>
       </c>
       <c r="D6" t="n">
-        <v>136.97177825536</v>
+        <v>136.9717641885642</v>
       </c>
       <c r="E6" t="n">
-        <v>-88.02080447162211</v>
+        <v>-88.02077845562749</v>
       </c>
       <c r="F6" t="n">
-        <v>-32.72561122476373</v>
+        <v>-32.72560619894354</v>
       </c>
       <c r="G6" t="n">
-        <v>287.9831927039735</v>
+        <v>287.9831631285323</v>
       </c>
       <c r="H6" t="n">
-        <v>136.97177825536</v>
+        <v>136.9717641885642</v>
       </c>
       <c r="I6" t="n">
-        <v>-253.3240044716221</v>
+        <v>-253.3239784556275</v>
       </c>
       <c r="J6" t="n">
         <v>-61.6</v>
       </c>
       <c r="K6" t="n">
-        <v>54776.15812133571</v>
+        <v>54776.16509991918</v>
       </c>
       <c r="L6" t="n">
-        <v>226.881167363511</v>
+        <v>226.8811758322678</v>
       </c>
       <c r="M6" t="n">
-        <v>352939.8066719907</v>
+        <v>352939.8151505936</v>
       </c>
       <c r="N6" t="n">
-        <v>3782.917347130922</v>
+        <v>3782.917347959738</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8417504600098735</v>
+        <v>0.8417505358130649</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9992025368705389</v>
+        <v>0.9992025368912899</v>
       </c>
       <c r="Q6" t="n">
-        <v>302.0317986777324</v>
+        <v>302.0318043221328</v>
       </c>
       <c r="R6" t="n">
-        <v>1.480800191226214e-05</v>
+        <v>1.480800236986209e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02069927013246788</v>
+        <v>0.02069927082219582</v>
       </c>
       <c r="T6" t="n">
-        <v>1004.370269072912</v>
+        <v>1004.370269240092</v>
       </c>
       <c r="U6" t="n">
-        <v>715.8973145832312</v>
+        <v>715.8973146970134</v>
       </c>
       <c r="V6" t="n">
-        <v>1.402952977491778</v>
+        <v>1.402952977502322</v>
       </c>
       <c r="W6" t="n">
-        <v>66767.28107395818</v>
+        <v>66767.28501048365</v>
       </c>
       <c r="X6" t="n">
-        <v>240.1201084672705</v>
+        <v>240.1201127233027</v>
       </c>
       <c r="Y6" t="n">
-        <v>366194.2717010239</v>
+        <v>366194.2759631323</v>
       </c>
       <c r="Z6" t="n">
-        <v>3782.917347129607</v>
+        <v>3782.917347968316</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.9694162223170957</v>
+        <v>0.9694162622754203</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.9992373228654357</v>
+        <v>0.9992373228807704</v>
       </c>
       <c r="AC6" t="n">
-        <v>310.7307942290274</v>
+        <v>310.7307969866823</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.551575431771691e-05</v>
+        <v>1.551575454280069e-05</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.02176852351194976</v>
+        <v>0.02176852385274476</v>
       </c>
       <c r="AF6" t="n">
-        <v>1004.670783858913</v>
+        <v>1004.670783960946</v>
       </c>
       <c r="AG6" t="n">
-        <v>716.1070778696525</v>
+        <v>716.1070779466742</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.402961672781825</v>
+        <v>1.402961672773412</v>
       </c>
       <c r="AI6" t="n">
-        <v>98348.87303148367</v>
+        <v>98348.87269471546</v>
       </c>
       <c r="AJ6" t="n">
-        <v>268.2888290507215</v>
+        <v>268.2888290114648</v>
       </c>
       <c r="AK6" t="n">
-        <v>394406.9663120779</v>
+        <v>394406.9662735588</v>
       </c>
       <c r="AL6" t="n">
-        <v>3782.917347119163</v>
+        <v>3782.917347957873</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.277885257663866</v>
+        <v>1.277885253472946</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.9993525104071994</v>
+        <v>0.9993525104088751</v>
       </c>
       <c r="AO6" t="n">
-        <v>328.4766232023066</v>
+        <v>328.4766231781019</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.697355975100503e-05</v>
+        <v>1.697355974897289e-05</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.02398633538078771</v>
+        <v>0.02398633537764646</v>
       </c>
       <c r="AR6" t="n">
-        <v>1005.558290410029</v>
+        <v>1005.558290402598</v>
       </c>
       <c r="AS6" t="n">
-        <v>716.7966591797493</v>
+        <v>716.7966591775955</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.402850135435505</v>
+        <v>1.402850135429354</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="AV6" t="n">
-        <v>-4.665141837606171e-09</v>
+        <v>1.937307975530591e-09</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -1597,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.5390678492111678</v>
+        <v>0.5390677533889734</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.9534863347658675</v>
+        <v>0.9534862190254081</v>
       </c>
       <c r="BE6" t="n">
-        <v>426607.4683675335</v>
+        <v>426607.4497902796</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.907268403904979</v>
+        <v>2.90726836714468</v>
       </c>
       <c r="BG6" t="n">
-        <v>380744.3923468576</v>
+        <v>380744.3923083385</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
@@ -1623,136 +1623,136 @@
         <v>165.3032</v>
       </c>
       <c r="C7" t="n">
-        <v>161.3310917701515</v>
+        <v>161.3310911686303</v>
       </c>
       <c r="D7" t="n">
-        <v>136.2207113883108</v>
+        <v>136.2207111911391</v>
       </c>
       <c r="E7" t="n">
-        <v>-86.4386427508644</v>
+        <v>-86.43864193889894</v>
       </c>
       <c r="F7" t="n">
-        <v>-32.39710654332485</v>
+        <v>-32.39710633736063</v>
       </c>
       <c r="G7" t="n">
-        <v>286.2342355532238</v>
+        <v>286.2342347452682</v>
       </c>
       <c r="H7" t="n">
-        <v>136.2207113883108</v>
+        <v>136.2207111911391</v>
       </c>
       <c r="I7" t="n">
-        <v>-251.7418427508644</v>
+        <v>-251.7418419388989</v>
       </c>
       <c r="J7" t="n">
-        <v>-61.58161639564114</v>
+        <v>-61.58161635300316</v>
       </c>
       <c r="K7" t="n">
-        <v>55199.9999846717</v>
+        <v>55200.00000230761</v>
       </c>
       <c r="L7" t="n">
-        <v>227.3827600438201</v>
+        <v>227.3827602355932</v>
       </c>
       <c r="M7" t="n">
-        <v>353441.947510716</v>
+        <v>353441.9477032609</v>
       </c>
       <c r="N7" t="n">
-        <v>3782.917347208242</v>
+        <v>3782.917347963392</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8463915267136568</v>
+        <v>0.8463915262681033</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9992036384739029</v>
+        <v>0.9992036384764141</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.3659176647396</v>
+        <v>302.3659177925243</v>
       </c>
       <c r="R7" t="n">
-        <v>1.483509529735064e-05</v>
+        <v>1.483509530768117e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02074011247872721</v>
+        <v>0.02074011249427582</v>
       </c>
       <c r="T7" t="n">
-        <v>1004.380506144594</v>
+        <v>1004.380506144012</v>
       </c>
       <c r="U7" t="n">
-        <v>715.9041442991843</v>
+        <v>715.9041443010528</v>
       </c>
       <c r="V7" t="n">
-        <v>1.40295389283967</v>
+        <v>1.402953892835196</v>
       </c>
       <c r="W7" t="n">
-        <v>67021.16224641829</v>
+        <v>67021.16216079281</v>
       </c>
       <c r="X7" t="n">
-        <v>240.3813132744892</v>
+        <v>240.3813133695463</v>
       </c>
       <c r="Y7" t="n">
-        <v>366455.8080963831</v>
+        <v>366455.8081921843</v>
       </c>
       <c r="Z7" t="n">
-        <v>3782.917347206962</v>
+        <v>3782.917347971951</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9720442222608741</v>
+        <v>0.9720442206323612</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.9992381302760112</v>
+        <v>0.9992381302783264</v>
       </c>
       <c r="AC7" t="n">
-        <v>310.8999899472993</v>
+        <v>310.8999900089074</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.552956739907709e-05</v>
+        <v>1.552956740407429e-05</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02178944044002756</v>
+        <v>0.02178944044756713</v>
       </c>
       <c r="AF7" t="n">
-        <v>1004.677384020409</v>
+        <v>1004.67738401799</v>
       </c>
       <c r="AG7" t="n">
-        <v>716.1118712573908</v>
+        <v>716.1118712583525</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.402961498538403</v>
+        <v>1.402961498533141</v>
       </c>
       <c r="AI7" t="n">
-        <v>98348.87300495653</v>
+        <v>98348.87269346244</v>
       </c>
       <c r="AJ7" t="n">
-        <v>268.2888290506467</v>
+        <v>268.2888290114612</v>
       </c>
       <c r="AK7" t="n">
-        <v>394406.9663120779</v>
+        <v>394406.9662735587</v>
       </c>
       <c r="AL7" t="n">
-        <v>3782.917347196538</v>
+        <v>3782.917347961527</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.277885257319324</v>
+        <v>1.277885253456672</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.9993525104073722</v>
+        <v>0.9993525104088832</v>
       </c>
       <c r="AO7" t="n">
-        <v>328.4766232022476</v>
+        <v>328.4766231780991</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.697355975099721e-05</v>
+        <v>1.697355974897251e-05</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.02398633538077253</v>
+        <v>0.02398633537764574</v>
       </c>
       <c r="AR7" t="n">
-        <v>1005.558290409479</v>
+        <v>1005.558290402572</v>
       </c>
       <c r="AS7" t="n">
-        <v>716.7966591796618</v>
+        <v>716.7966591775912</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.40285013543491</v>
+        <v>1.402850135429326</v>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="AV7" t="n">
-        <v>-4.096184802860669e-09</v>
+        <v>1.985376913937109e-09</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
@@ -1781,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.5335624233582894</v>
+        <v>0.5335624211434159</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.9466484773280484</v>
+        <v>0.9466484742558677</v>
       </c>
       <c r="BE7" t="n">
-        <v>425575.8301291807</v>
+        <v>425575.8284075222</v>
       </c>
       <c r="BF7" t="n">
-        <v>2.907268366766145</v>
+        <v>2.907268361027608</v>
       </c>
       <c r="BG7" t="n">
-        <v>380744.3923468577</v>
+        <v>380744.3923083385</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -1943,22 +1943,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.306296326220036e-06</v>
+        <v>-1.412583515048027e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9993998649490941</v>
+        <v>0.9993998663064271</v>
       </c>
       <c r="J2" t="n">
-        <v>2.945290233160081</v>
+        <v>2.945290233162436</v>
       </c>
       <c r="K2" t="n">
-        <v>1.032223874179738</v>
+        <v>1.032223873013278</v>
       </c>
       <c r="L2" t="n">
-        <v>314.4890253845936</v>
+        <v>314.4890257402319</v>
       </c>
       <c r="M2" t="n">
-        <v>72909.5948781248</v>
+        <v>72909.59476260604</v>
       </c>
       <c r="N2" t="n">
         <v>65</v>
@@ -1996,28 +1996,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0001148159499280155</v>
+        <v>5.698652239516377e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.999399892286758</v>
+        <v>0.9993998658877447</v>
       </c>
       <c r="J3" t="n">
-        <v>2.909275764250984</v>
+        <v>2.909275760933027</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8098927807611424</v>
+        <v>0.809892797589672</v>
       </c>
       <c r="L3" t="n">
-        <v>299.5178692105308</v>
+        <v>299.5178626453423</v>
       </c>
       <c r="M3" t="n">
-        <v>51892.2843225949</v>
+        <v>51892.28586708313</v>
       </c>
       <c r="N3" t="n">
         <v>-61.6</v>
       </c>
       <c r="O3" t="n">
-        <v>5.797163270712574</v>
+        <v>5.797163321746964</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -2048,7 +2048,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>reaction</t>
         </is>
       </c>
     </row>
@@ -2056,8 +2056,10 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.4749234034406115</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[0.4749234]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2176,40 +2178,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.500000000652588</v>
+        <v>2.059051134724007</v>
       </c>
       <c r="C2" t="n">
-        <v>2.059051132093387</v>
+        <v>2.49999999985386</v>
       </c>
       <c r="D2" t="n">
-        <v>2.907268366766145</v>
+        <v>2.907268361027608</v>
       </c>
       <c r="E2" t="n">
-        <v>1.000000002405527</v>
+        <v>0.9999999989200758</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8095787598462714</v>
+        <v>0.8095787584444912</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1904212421011921</v>
+        <v>0.1904212406812251</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.947463440510333e-09</v>
+        <v>8.742836732356096e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>160855.1554019724</v>
+        <v>160855.1548059475</v>
       </c>
       <c r="J2" t="n">
-        <v>98.8661065777335</v>
+        <v>98.8661062113998</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-32.39710654332485</v>
+        <v>-32.39710633736063</v>
       </c>
       <c r="M2" t="n">
-        <v>161.3310917701515</v>
+        <v>161.3310911686303</v>
       </c>
       <c r="N2" t="n">
         <v>369.7093005183567</v>
@@ -2224,7 +2226,7 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>366455.8080963831</v>
+        <v>366455.8081921843</v>
       </c>
       <c r="S2" t="n">
         <v>353441.9476436031</v>
@@ -2241,7 +2243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2467,264 +2469,213 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>stator</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.018294</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02616</v>
-      </c>
-      <c r="E2" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.007731</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.00254</v>
-      </c>
-      <c r="H2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>65</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.00505</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.01912286864605749</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.71599881771735</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.71599881771735</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.71599881771735</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1.758627359861796</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.6993119266055047</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.1930428134556575</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.06467468632777131</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.0970948012232416</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rotor</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01524</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02606</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-31.05</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.007249</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00162</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-61.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.00447</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.02232605854162319</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.08185000000000001</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.08185000000000001</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.12135</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.12135</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.118715</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.12165</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.12165</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.6986814997939843</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.6744952616398847</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.6744952616398847</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.02521567927477312</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.02521567927477312</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.036565</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.03949999999999999</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.257102584362989</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1.637772288907632</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.5848042977743668</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.171527244819647</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.06897503103876397</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.00820456720907972</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.06216423637759017</v>
+          <t>['stator' 'rotor']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.018294 0.01524 ]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.02616 0.02606]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[ 43.03 -31.05]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0.007731 0.007249]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[0.00254 0.00162]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[50. 50.]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[ 0.  29.6]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[ 65.  -61.6]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[0.0005 0.0005]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[0.00505 0.00447]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[0.     0.0003]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1. 1.]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[0.01912287 0.02232606]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[0.1016 0.1016]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[0.1016 0.1016]</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[0.1016 0.1016]</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>[0.084785 0.084785]</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>[0.084785 0.08185 ]</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>[0.084785 0.08185 ]</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.118415]</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12135 ]</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12135 ]</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.118715]</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12165 ]</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12165 ]</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>[0.71599882 0.6986815 ]</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>[0.71599882 0.67449526]</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>[0.71599882 0.67449526]</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>[0.02146844 0.02146844]</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>[0.02146844 0.02521568]</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>[0.02146844 0.02521568]</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>[0.03363  0.036565]</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>[0.03363 0.03363]</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>[0.03363 0.0395 ]</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>[0.         0.25710258]</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>[1.75862736 1.63777229]</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>[0.69931193 0.5848043 ]</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>[0.19304281 0.17152724]</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>[0.06467469 0.06897503]</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>[0.         0.00820457]</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>[0.0970948  0.06216424]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2738,7 +2689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3028,6 +2979,23 @@
         <v>8.224363395142913e-08</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.60700359276364e-09</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.224363395142913e-08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tests/regression_data/kofskey1972a_isentropic_2.xlsx
+++ b/tests/regression_data/kofskey1972a_isentropic_2.xlsx
@@ -2243,7 +2243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2444,20 +2444,25 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
+          <t>solidity</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
           <t>thickness_max_chord_ratio</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>thickness_te_opening_ratio</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>tip_clearance_height_ratio</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>diameter_le_chord_ratio</t>
         </is>
@@ -2659,20 +2664,25 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
+          <t>[1.42997704 1.70997375]</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>[0.19304281 0.17152724]</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>[0.06467469 0.06897503]</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>[0.         0.00820457]</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>[0.0970948  0.06216424]</t>
         </is>
